--- a/file_export/Danh sach trich ngang can bo.xlsx
+++ b/file_export/Danh sach trich ngang can bo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t xml:space="preserve">BAN CHẤP HÀNH TRUNG ƯƠNG
 </t>
@@ -115,61 +115,70 @@
     <t>Năm ....</t>
   </si>
   <si>
+    <t>Lê Khánh Trình</t>
+  </si>
+  <si>
+    <t>xã Hoằng Đạo - 902 - 91</t>
+  </si>
+  <si>
+    <t>15-12-1945</t>
+  </si>
+  <si>
+    <t>Kinh</t>
+  </si>
+  <si>
+    <t>Cao cấp</t>
+  </si>
+  <si>
+    <t>01-01-1970</t>
+  </si>
+  <si>
+    <t>02-03-2004</t>
+  </si>
+  <si>
+    <t>Chức vụ - Ban Kiểm tra Trung ương Đoàn</t>
+  </si>
+  <si>
+    <t>2000 - Lao động tiên tiến</t>
+  </si>
+  <si>
+    <t>2013 - Chiến sĩ thi đua Trung ương Đoàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>Xã Thanh Cao - 960 - 95</t>
+  </si>
+  <si>
+    <t>13-02-1993</t>
+  </si>
+  <si>
+    <t>Trung Cấp</t>
+  </si>
+  <si>
+    <t>23-12-1999</t>
+  </si>
+  <si>
+    <t>12-01-1961</t>
+  </si>
+  <si>
+    <t>Trưởng ban trung ương phòng chống tham nhũng - Ban Thanh niên công nhân và đô thị Trung ương Đoàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hai</t>
+  </si>
+  <si>
+    <t>Xã Thanh Cao - 297 - 30</t>
+  </si>
+  <si>
     <t>Mẫn Việt Dũng</t>
   </si>
   <si>
-    <t>xã Hoằng Đạo - 902 - 91</t>
-  </si>
-  <si>
-    <t>15-12-1940</t>
-  </si>
-  <si>
-    <t>Kinh</t>
-  </si>
-  <si>
-    <t>Cao cấp</t>
-  </si>
-  <si>
-    <t>01-01-1970</t>
-  </si>
-  <si>
-    <t>02-03-2004</t>
-  </si>
-  <si>
-    <t>Chức vụ - Ban Kiểm tra Trung ương Đoàn</t>
-  </si>
-  <si>
-    <t>2000 - Lao động tiên tiến</t>
-  </si>
-  <si>
-    <t>2013 - Chiến sĩ thi đua Trung ương Đoàn</t>
-  </si>
-  <si>
-    <t>Lê Khánh Trình</t>
-  </si>
-  <si>
-    <t>15-12-1945</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Hai</t>
-  </si>
-  <si>
-    <t>Xã Thanh Cao - 297 - 30</t>
-  </si>
-  <si>
-    <t>13-02-1993</t>
-  </si>
-  <si>
-    <t>Trung Cấp</t>
-  </si>
-  <si>
-    <t>23-12-1999</t>
-  </si>
-  <si>
-    <t>12-01-1961</t>
-  </si>
-  <si>
-    <t>Trưởng ban trung ương phòng chống tham nhũng - Ban Thanh niên công nhân và đô thị Trung ương Đoàn</t>
+    <t>Xã Thanh Cao - 258 - 27</t>
+  </si>
+  <si>
+    <t>15-12-1992</t>
   </si>
   <si>
     <t>CÁN BỘ HIỆN HƯỞNG LƯƠNG NGẠCH CHUYÊN VIÊN CHÍNH,
@@ -845,10 +854,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="40.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,11 +1216,11 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1220,16 +1229,16 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1260,14 +1269,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1276,16 +1285,16 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1310,6 +1319,118 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>10</v>
+      </c>
+      <c r="R13" s="3">
+        <v>10</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1466,7 +1587,7 @@
     </row>
     <row r="5" spans="1:21" customHeight="1" ht="39">
       <c r="A5" s="32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -1777,7 +1898,7 @@
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="20.25">
       <c r="A5" s="32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -1802,7 +1923,7 @@
     </row>
     <row r="6" spans="1:32" customHeight="1" ht="20.25">
       <c r="A6" s="38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -1863,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P8" s="19" t="s">
         <v>18</v>
@@ -1873,7 +1994,7 @@
       <c r="S8" s="20"/>
       <c r="T8" s="21"/>
       <c r="V8" s="39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
